--- a/data/pca/factorExposure/factorExposure_2016-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01202175343261073</v>
+        <v>0.01353088888779793</v>
       </c>
       <c r="C2">
-        <v>-0.05167679223606399</v>
+        <v>0.04152633871225941</v>
       </c>
       <c r="D2">
-        <v>0.03701217688426418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06230027557473278</v>
+      </c>
+      <c r="E2">
+        <v>-0.0688355571481605</v>
+      </c>
+      <c r="F2">
+        <v>0.06742794522811101</v>
+      </c>
+      <c r="G2">
+        <v>0.03804242908004982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05067456525242953</v>
+        <v>0.02944964893270349</v>
       </c>
       <c r="C3">
-        <v>-0.108986845380264</v>
+        <v>0.07986883298261774</v>
       </c>
       <c r="D3">
-        <v>0.09935391631766689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08941101472126227</v>
+      </c>
+      <c r="E3">
+        <v>-0.07022708483499469</v>
+      </c>
+      <c r="F3">
+        <v>-0.007146902183191449</v>
+      </c>
+      <c r="G3">
+        <v>-0.03835102797692821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06615795707478857</v>
+        <v>0.05874130397167034</v>
       </c>
       <c r="C4">
-        <v>-0.05639835835202261</v>
+        <v>0.06413265642601863</v>
       </c>
       <c r="D4">
-        <v>0.02841676503351135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05948007086144774</v>
+      </c>
+      <c r="E4">
+        <v>-0.06856765228607044</v>
+      </c>
+      <c r="F4">
+        <v>0.07979554180800531</v>
+      </c>
+      <c r="G4">
+        <v>-0.03946528894464468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03978666311321553</v>
+        <v>0.03586487434942918</v>
       </c>
       <c r="C6">
-        <v>-0.03915361940073673</v>
+        <v>0.03200567024784338</v>
       </c>
       <c r="D6">
-        <v>0.03334226364730542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06439139324679533</v>
+      </c>
+      <c r="E6">
+        <v>-0.07200608124829552</v>
+      </c>
+      <c r="F6">
+        <v>0.05930987900449393</v>
+      </c>
+      <c r="G6">
+        <v>-0.02397762943174609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02249962820395696</v>
+        <v>0.01873169662528276</v>
       </c>
       <c r="C7">
-        <v>-0.04480947293108977</v>
+        <v>0.03885078373783341</v>
       </c>
       <c r="D7">
-        <v>-0.00502808345091149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03748881029204463</v>
+      </c>
+      <c r="E7">
+        <v>-0.04763356649404015</v>
+      </c>
+      <c r="F7">
+        <v>0.09960794722928205</v>
+      </c>
+      <c r="G7">
+        <v>-0.008690900629854533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003315961705073117</v>
+        <v>0.003555572088907867</v>
       </c>
       <c r="C8">
-        <v>-0.03031890091630151</v>
+        <v>0.02872945043149448</v>
       </c>
       <c r="D8">
-        <v>0.02565561210439136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03111374436300266</v>
+      </c>
+      <c r="E8">
+        <v>-0.05040278387135621</v>
+      </c>
+      <c r="F8">
+        <v>0.03687124486181677</v>
+      </c>
+      <c r="G8">
+        <v>-0.009147096354181984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03585035523223944</v>
+        <v>0.03741321626005911</v>
       </c>
       <c r="C9">
-        <v>-0.04461774113639641</v>
+        <v>0.05184496377613956</v>
       </c>
       <c r="D9">
-        <v>0.01597414294517096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04283642496253472</v>
+      </c>
+      <c r="E9">
+        <v>-0.05657119887583344</v>
+      </c>
+      <c r="F9">
+        <v>0.08460182187222501</v>
+      </c>
+      <c r="G9">
+        <v>-0.02547316284303876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07202450861639775</v>
+        <v>0.09889213415916723</v>
       </c>
       <c r="C10">
-        <v>0.1954760020661499</v>
+        <v>-0.1976990674347753</v>
       </c>
       <c r="D10">
-        <v>-0.0084077415743003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005545488322967505</v>
+      </c>
+      <c r="E10">
+        <v>-0.04349601398134103</v>
+      </c>
+      <c r="F10">
+        <v>0.04078809329273946</v>
+      </c>
+      <c r="G10">
+        <v>-0.009313232042499443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04203005425271293</v>
+        <v>0.03678927911306511</v>
       </c>
       <c r="C11">
-        <v>-0.05446866760350154</v>
+        <v>0.0512084599238504</v>
       </c>
       <c r="D11">
-        <v>0.01426448173112709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03345792257432711</v>
+      </c>
+      <c r="E11">
+        <v>-0.0156161152391805</v>
+      </c>
+      <c r="F11">
+        <v>0.06639931239014296</v>
+      </c>
+      <c r="G11">
+        <v>-0.01626441232854929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04153486461678555</v>
+        <v>0.03755941249465767</v>
       </c>
       <c r="C12">
-        <v>-0.04865480778840862</v>
+        <v>0.0470213081221403</v>
       </c>
       <c r="D12">
-        <v>0.0028219033285866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02553060121587004</v>
+      </c>
+      <c r="E12">
+        <v>-0.02350509362953471</v>
+      </c>
+      <c r="F12">
+        <v>0.06640268411440831</v>
+      </c>
+      <c r="G12">
+        <v>-0.01280126002579142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01483478801120935</v>
+        <v>0.01258415447739965</v>
       </c>
       <c r="C13">
-        <v>-0.05459090101852155</v>
+        <v>0.04638117997376073</v>
       </c>
       <c r="D13">
-        <v>0.01871972024610584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05711657557003009</v>
+      </c>
+      <c r="E13">
+        <v>-0.08134307323687656</v>
+      </c>
+      <c r="F13">
+        <v>0.09740677165646436</v>
+      </c>
+      <c r="G13">
+        <v>-0.02263200127960737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007703571723430266</v>
+        <v>0.004720187299069471</v>
       </c>
       <c r="C14">
-        <v>-0.03847371949129917</v>
+        <v>0.03344860912990862</v>
       </c>
       <c r="D14">
-        <v>-0.0139307957310374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02537999878808223</v>
+      </c>
+      <c r="E14">
+        <v>-0.03565332902674456</v>
+      </c>
+      <c r="F14">
+        <v>0.09542489377398422</v>
+      </c>
+      <c r="G14">
+        <v>0.003989216205423831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002924077501180938</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004894009309120292</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005835316881943002</v>
+      </c>
+      <c r="E15">
+        <v>-0.002081238980931431</v>
+      </c>
+      <c r="F15">
+        <v>0.004127674954024222</v>
+      </c>
+      <c r="G15">
+        <v>0.00061299837064952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03790423381183265</v>
+        <v>0.03432240985010615</v>
       </c>
       <c r="C16">
-        <v>-0.0475209487197458</v>
+        <v>0.04551200263391218</v>
       </c>
       <c r="D16">
-        <v>0.008946829572468118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02744100237172619</v>
+      </c>
+      <c r="E16">
+        <v>-0.03051025878209176</v>
+      </c>
+      <c r="F16">
+        <v>0.0679946505004508</v>
+      </c>
+      <c r="G16">
+        <v>-0.002597815949560197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0224038259356158</v>
+        <v>0.01693190582900669</v>
       </c>
       <c r="C19">
-        <v>-0.06407793901468443</v>
+        <v>0.04960952758564556</v>
       </c>
       <c r="D19">
-        <v>0.08123654084710265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09071582070443351</v>
+      </c>
+      <c r="E19">
+        <v>-0.09846434383786029</v>
+      </c>
+      <c r="F19">
+        <v>0.07459217500954143</v>
+      </c>
+      <c r="G19">
+        <v>0.02321807900016023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01773504335023516</v>
+        <v>0.01410157268300031</v>
       </c>
       <c r="C20">
-        <v>-0.04879842567076086</v>
+        <v>0.04107808673853137</v>
       </c>
       <c r="D20">
-        <v>0.01540564691367086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03790086472588309</v>
+      </c>
+      <c r="E20">
+        <v>-0.06694037713999283</v>
+      </c>
+      <c r="F20">
+        <v>0.07787627626704587</v>
+      </c>
+      <c r="G20">
+        <v>-0.006505235679998238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01194443953262566</v>
+        <v>0.009705054646944109</v>
       </c>
       <c r="C21">
-        <v>-0.05135167166106189</v>
+        <v>0.04568375803116944</v>
       </c>
       <c r="D21">
-        <v>0.03876294782104415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06756084053176049</v>
+      </c>
+      <c r="E21">
+        <v>-0.09623769060018444</v>
+      </c>
+      <c r="F21">
+        <v>0.1225219896726676</v>
+      </c>
+      <c r="G21">
+        <v>-0.009193541340318577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>6.086024482772297e-05</v>
+        <v>0.002464942016750439</v>
       </c>
       <c r="C22">
-        <v>-1.052104092118311e-05</v>
+        <v>0.02448758014390702</v>
       </c>
       <c r="D22">
-        <v>7.970080243688355e-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03722877646494328</v>
+      </c>
+      <c r="E22">
+        <v>-0.02970067393039651</v>
+      </c>
+      <c r="F22">
+        <v>0.01211352991649819</v>
+      </c>
+      <c r="G22">
+        <v>-0.03917912822745051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>6.086024482772297e-05</v>
+        <v>0.002535562945156695</v>
       </c>
       <c r="C23">
-        <v>-1.052104092118311e-05</v>
+        <v>0.02463194043509612</v>
       </c>
       <c r="D23">
-        <v>7.970080243688355e-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03689263677162661</v>
+      </c>
+      <c r="E23">
+        <v>-0.02997896006245328</v>
+      </c>
+      <c r="F23">
+        <v>0.01191294143076879</v>
+      </c>
+      <c r="G23">
+        <v>-0.03938321874243792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03441325661754588</v>
+        <v>0.03402238977134344</v>
       </c>
       <c r="C24">
-        <v>-0.05124125262157397</v>
+        <v>0.05355138553316899</v>
       </c>
       <c r="D24">
-        <v>0.007468591886237717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02641077919569392</v>
+      </c>
+      <c r="E24">
+        <v>-0.02743148062608512</v>
+      </c>
+      <c r="F24">
+        <v>0.07607494181785812</v>
+      </c>
+      <c r="G24">
+        <v>-0.01044659020515482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04824752738641305</v>
+        <v>0.04412551558917267</v>
       </c>
       <c r="C25">
-        <v>-0.06199934983425994</v>
+        <v>0.05722810735363297</v>
       </c>
       <c r="D25">
-        <v>-0.001008571744912941</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02468525704248234</v>
+      </c>
+      <c r="E25">
+        <v>-0.02204801498716336</v>
+      </c>
+      <c r="F25">
+        <v>0.07754586983202573</v>
+      </c>
+      <c r="G25">
+        <v>-0.02716669480750773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01633094835194004</v>
+        <v>0.014220136187341</v>
       </c>
       <c r="C26">
-        <v>-0.01586208311435056</v>
+        <v>0.01767738042401932</v>
       </c>
       <c r="D26">
-        <v>-0.003070956844556764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02390961326289716</v>
+      </c>
+      <c r="E26">
+        <v>-0.03920424397206484</v>
+      </c>
+      <c r="F26">
+        <v>0.06686546599763095</v>
+      </c>
+      <c r="G26">
+        <v>0.01229101769038911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08627797965865329</v>
+        <v>0.1335930679504945</v>
       </c>
       <c r="C28">
-        <v>0.2347332112212883</v>
+        <v>-0.2474734124066861</v>
       </c>
       <c r="D28">
-        <v>-0.0072233721683271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01839615092015998</v>
+      </c>
+      <c r="E28">
+        <v>-0.0539327177760286</v>
+      </c>
+      <c r="F28">
+        <v>0.05777816781894085</v>
+      </c>
+      <c r="G28">
+        <v>-0.0217457776274097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008471836187552555</v>
+        <v>0.005812916459897374</v>
       </c>
       <c r="C29">
-        <v>-0.03094132357200277</v>
+        <v>0.02933970654034896</v>
       </c>
       <c r="D29">
-        <v>-0.01899811017159235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01902499220200854</v>
+      </c>
+      <c r="E29">
+        <v>-0.0363801893492505</v>
+      </c>
+      <c r="F29">
+        <v>0.08839191959559821</v>
+      </c>
+      <c r="G29">
+        <v>-0.00917706776035644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05040757669532449</v>
+        <v>0.04291102867183381</v>
       </c>
       <c r="C30">
-        <v>-0.06263505180053941</v>
+        <v>0.06510166063776554</v>
       </c>
       <c r="D30">
-        <v>0.07664509515971842</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1095453878756003</v>
+      </c>
+      <c r="E30">
+        <v>-0.06106684210558005</v>
+      </c>
+      <c r="F30">
+        <v>0.08911189782138014</v>
+      </c>
+      <c r="G30">
+        <v>0.01088752628147087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05367351559234117</v>
+        <v>0.05521522740886713</v>
       </c>
       <c r="C31">
-        <v>-0.03752281279268321</v>
+        <v>0.05612242828318607</v>
       </c>
       <c r="D31">
-        <v>-0.03028580615300253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01271591069678664</v>
+      </c>
+      <c r="E31">
+        <v>-0.06109368645011962</v>
+      </c>
+      <c r="F31">
+        <v>0.07286253821813223</v>
+      </c>
+      <c r="G31">
+        <v>-0.04827943281382938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001076602117624615</v>
+        <v>0.005177253458138605</v>
       </c>
       <c r="C32">
-        <v>-0.03942914930702215</v>
+        <v>0.03465633995799219</v>
       </c>
       <c r="D32">
-        <v>0.042493449157613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05170286457035988</v>
+      </c>
+      <c r="E32">
+        <v>-0.04039458690699219</v>
+      </c>
+      <c r="F32">
+        <v>0.06548209429504366</v>
+      </c>
+      <c r="G32">
+        <v>0.009603486443952331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02842665839451457</v>
+        <v>0.02513093364884706</v>
       </c>
       <c r="C33">
-        <v>-0.06053910014376251</v>
+        <v>0.05484496381355374</v>
       </c>
       <c r="D33">
-        <v>0.04681401129741723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07900776174441042</v>
+      </c>
+      <c r="E33">
+        <v>-0.07085078327094879</v>
+      </c>
+      <c r="F33">
+        <v>0.1186573188836778</v>
+      </c>
+      <c r="G33">
+        <v>-0.02210412790583578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04620828307267932</v>
+        <v>0.04149603183190639</v>
       </c>
       <c r="C34">
-        <v>-0.06683228653273535</v>
+        <v>0.06425429294390729</v>
       </c>
       <c r="D34">
-        <v>0.01124543173479056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03395761549530209</v>
+      </c>
+      <c r="E34">
+        <v>-0.001856222338497975</v>
+      </c>
+      <c r="F34">
+        <v>0.07773902856108562</v>
+      </c>
+      <c r="G34">
+        <v>-0.01254542796500284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01342710028123645</v>
+        <v>0.01316513489361975</v>
       </c>
       <c r="C36">
-        <v>-0.01741465589164374</v>
+        <v>0.01319623153619059</v>
       </c>
       <c r="D36">
-        <v>-0.00297892520580832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02653415902849205</v>
+      </c>
+      <c r="E36">
+        <v>-0.04602896860966448</v>
+      </c>
+      <c r="F36">
+        <v>0.07487342954533249</v>
+      </c>
+      <c r="G36">
+        <v>-0.01048731743110939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03120569869821026</v>
+        <v>0.02477524322037213</v>
       </c>
       <c r="C38">
-        <v>-0.02797943834244742</v>
+        <v>0.02371246511856226</v>
       </c>
       <c r="D38">
-        <v>-0.007301679329134813</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02705016164278099</v>
+      </c>
+      <c r="E38">
+        <v>-0.04530747181669268</v>
+      </c>
+      <c r="F38">
+        <v>0.06388395749945147</v>
+      </c>
+      <c r="G38">
+        <v>-0.004633628172214277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04628400374794121</v>
+        <v>0.04025909010034128</v>
       </c>
       <c r="C39">
-        <v>-0.07112035815895895</v>
+        <v>0.06838228544585388</v>
       </c>
       <c r="D39">
-        <v>0.02173029145178048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0538138473583859</v>
+      </c>
+      <c r="E39">
+        <v>-0.03245095939597584</v>
+      </c>
+      <c r="F39">
+        <v>0.08660018364474695</v>
+      </c>
+      <c r="G39">
+        <v>0.01234160490130358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01368037291910485</v>
+        <v>0.01413952355661753</v>
       </c>
       <c r="C40">
-        <v>-0.05371370848351186</v>
+        <v>0.0397146829170229</v>
       </c>
       <c r="D40">
-        <v>0.0234225842832615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0349580199528356</v>
+      </c>
+      <c r="E40">
+        <v>-0.07359107540717591</v>
+      </c>
+      <c r="F40">
+        <v>0.07226101479262718</v>
+      </c>
+      <c r="G40">
+        <v>-0.04221899465782042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01839270504435004</v>
+        <v>0.01788282472820688</v>
       </c>
       <c r="C41">
-        <v>-0.006050639070193149</v>
+        <v>0.007626459423426875</v>
       </c>
       <c r="D41">
-        <v>-0.002842263886284971</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01446225244889811</v>
+      </c>
+      <c r="E41">
+        <v>-0.04972144940749532</v>
+      </c>
+      <c r="F41">
+        <v>0.06397098197862255</v>
+      </c>
+      <c r="G41">
+        <v>-0.003687763440174162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03684976721240736</v>
+        <v>0.02862612108223358</v>
       </c>
       <c r="C43">
-        <v>-0.02262865161268094</v>
+        <v>0.02197979933269465</v>
       </c>
       <c r="D43">
-        <v>0.01854318890605449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03981738459384458</v>
+      </c>
+      <c r="E43">
+        <v>-0.05965455257327227</v>
+      </c>
+      <c r="F43">
+        <v>0.07532532091724818</v>
+      </c>
+      <c r="G43">
+        <v>-0.02330072256529049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01564571862734152</v>
+        <v>0.01498948932112884</v>
       </c>
       <c r="C44">
-        <v>-0.06464556308043577</v>
+        <v>0.05170230727883438</v>
       </c>
       <c r="D44">
-        <v>0.01642736648020859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04195940512397095</v>
+      </c>
+      <c r="E44">
+        <v>-0.07850198025572636</v>
+      </c>
+      <c r="F44">
+        <v>0.0756775839600534</v>
+      </c>
+      <c r="G44">
+        <v>0.004766024712168548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00486397237331274</v>
+        <v>0.007670724318040797</v>
       </c>
       <c r="C46">
-        <v>-0.0233520504675682</v>
+        <v>0.02642072568679854</v>
       </c>
       <c r="D46">
-        <v>-0.02103243647439493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01004365609895874</v>
+      </c>
+      <c r="E46">
+        <v>-0.04518759157856007</v>
+      </c>
+      <c r="F46">
+        <v>0.1005518807526386</v>
+      </c>
+      <c r="G46">
+        <v>-0.00207281214558644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08350368638619669</v>
+        <v>0.08760157796482949</v>
       </c>
       <c r="C47">
-        <v>-0.06557991346635081</v>
+        <v>0.07901030651761945</v>
       </c>
       <c r="D47">
-        <v>-0.02761611902215202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01833915639749657</v>
+      </c>
+      <c r="E47">
+        <v>-0.06341579046259997</v>
+      </c>
+      <c r="F47">
+        <v>0.07496158524732013</v>
+      </c>
+      <c r="G47">
+        <v>-0.05142517727225913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01882006258696844</v>
+        <v>0.01581631213421233</v>
       </c>
       <c r="C48">
-        <v>-0.01347026303237621</v>
+        <v>0.01696955193087054</v>
       </c>
       <c r="D48">
-        <v>-0.01621328621569281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01516962113008158</v>
+      </c>
+      <c r="E48">
+        <v>-0.05702220124079621</v>
+      </c>
+      <c r="F48">
+        <v>0.08948702234553813</v>
+      </c>
+      <c r="G48">
+        <v>-0.009754863235315098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08086354151795899</v>
+        <v>0.07125072794481303</v>
       </c>
       <c r="C50">
-        <v>-0.07380087109191796</v>
+        <v>0.07267893415655081</v>
       </c>
       <c r="D50">
-        <v>-0.02926226483632847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.004605873489816606</v>
+      </c>
+      <c r="E50">
+        <v>-0.067611728359298</v>
+      </c>
+      <c r="F50">
+        <v>0.05841954647280657</v>
+      </c>
+      <c r="G50">
+        <v>-0.07090668376908132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01557651226354284</v>
+        <v>0.01105396184914107</v>
       </c>
       <c r="C51">
-        <v>-0.04889838360624678</v>
+        <v>0.03329834394587175</v>
       </c>
       <c r="D51">
-        <v>0.02456261018880586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04922593049340949</v>
+      </c>
+      <c r="E51">
+        <v>-0.03625194535207399</v>
+      </c>
+      <c r="F51">
+        <v>0.07894678632102489</v>
+      </c>
+      <c r="G51">
+        <v>0.01841659174426859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08232909642230449</v>
+        <v>0.09406278228663728</v>
       </c>
       <c r="C53">
-        <v>-0.07662168225383138</v>
+        <v>0.0866422558540224</v>
       </c>
       <c r="D53">
-        <v>-0.03967094939873984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0421634709883173</v>
+      </c>
+      <c r="E53">
+        <v>-0.06032206637834354</v>
+      </c>
+      <c r="F53">
+        <v>0.08260562244749049</v>
+      </c>
+      <c r="G53">
+        <v>-0.06290922247997167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03012826671245591</v>
+        <v>0.02768096657464449</v>
       </c>
       <c r="C54">
-        <v>-0.02654481760075486</v>
+        <v>0.02694435407802406</v>
       </c>
       <c r="D54">
-        <v>-0.0003385378055535573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02876613263260491</v>
+      </c>
+      <c r="E54">
+        <v>-0.04541957384737712</v>
+      </c>
+      <c r="F54">
+        <v>0.09963653970272454</v>
+      </c>
+      <c r="G54">
+        <v>-0.01027045863541254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07576122593148497</v>
+        <v>0.08531845296307719</v>
       </c>
       <c r="C55">
-        <v>-0.05810809767203801</v>
+        <v>0.06943932110609273</v>
       </c>
       <c r="D55">
-        <v>-0.04738987642241681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04869588932380101</v>
+      </c>
+      <c r="E55">
+        <v>-0.04724526520368763</v>
+      </c>
+      <c r="F55">
+        <v>0.05811877483836392</v>
+      </c>
+      <c r="G55">
+        <v>-0.0510293780361247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1451815025076384</v>
+        <v>0.1475614924450893</v>
       </c>
       <c r="C56">
-        <v>-0.09283788460556802</v>
+        <v>0.1039939537103901</v>
       </c>
       <c r="D56">
-        <v>-0.04384567103173789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05135676894247107</v>
+      </c>
+      <c r="E56">
+        <v>-0.05025455866041161</v>
+      </c>
+      <c r="F56">
+        <v>0.04118380231818906</v>
+      </c>
+      <c r="G56">
+        <v>-0.05833385035843891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001294934243244715</v>
+        <v>0.0006877846041829339</v>
       </c>
       <c r="C57">
-        <v>0.001825259520330926</v>
+        <v>-0.000875772933637372</v>
       </c>
       <c r="D57">
-        <v>0.01586979549225462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01211044329766427</v>
+      </c>
+      <c r="E57">
+        <v>-0.008597130632721857</v>
+      </c>
+      <c r="F57">
+        <v>0.007832194416562134</v>
+      </c>
+      <c r="G57">
+        <v>-0.002711153782939872</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05746219866055886</v>
+        <v>0.03046854899136252</v>
       </c>
       <c r="C58">
-        <v>-0.02084546961317334</v>
+        <v>0.03404584454224817</v>
       </c>
       <c r="D58">
-        <v>0.7177467716620308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.415270640979936</v>
+      </c>
+      <c r="E58">
+        <v>-0.6633879363241627</v>
+      </c>
+      <c r="F58">
+        <v>-0.5403787462805151</v>
+      </c>
+      <c r="G58">
+        <v>0.07277285413006983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1292246809576888</v>
+        <v>0.1437923625890326</v>
       </c>
       <c r="C59">
-        <v>0.1967488090977181</v>
+        <v>-0.187531571182389</v>
       </c>
       <c r="D59">
-        <v>0.01893023454408209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03029984850948108</v>
+      </c>
+      <c r="E59">
+        <v>-0.02669967517734681</v>
+      </c>
+      <c r="F59">
+        <v>0.02172463716751949</v>
+      </c>
+      <c r="G59">
+        <v>0.02882369494242644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3108546461408399</v>
+        <v>0.2833219257572465</v>
       </c>
       <c r="C60">
-        <v>-0.08358968387536875</v>
+        <v>0.09760161432763592</v>
       </c>
       <c r="D60">
-        <v>0.1232825110788152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2189951839382886</v>
+      </c>
+      <c r="E60">
+        <v>0.2664551947645425</v>
+      </c>
+      <c r="F60">
+        <v>-0.0937474311784514</v>
+      </c>
+      <c r="G60">
+        <v>-0.04746854604122347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04387758350082845</v>
+        <v>0.0414899722686294</v>
       </c>
       <c r="C61">
-        <v>-0.06549371932737495</v>
+        <v>0.06278449681846181</v>
       </c>
       <c r="D61">
-        <v>0.01576082433656129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0451619106471999</v>
+      </c>
+      <c r="E61">
+        <v>-0.03657585992424234</v>
+      </c>
+      <c r="F61">
+        <v>0.07727316841455537</v>
+      </c>
+      <c r="G61">
+        <v>-0.01353233764039775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01614987671231518</v>
+        <v>0.01559166689514794</v>
       </c>
       <c r="C63">
-        <v>-0.03568896929523566</v>
+        <v>0.03239757854683366</v>
       </c>
       <c r="D63">
-        <v>-0.007542296359080216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02195805966683848</v>
+      </c>
+      <c r="E63">
+        <v>-0.05011013142474424</v>
+      </c>
+      <c r="F63">
+        <v>0.07002225993844874</v>
+      </c>
+      <c r="G63">
+        <v>-0.02923985568086691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04864488609240494</v>
+        <v>0.0559614748491082</v>
       </c>
       <c r="C64">
-        <v>-0.04284632779791954</v>
+        <v>0.05472628448684939</v>
       </c>
       <c r="D64">
-        <v>0.001130875742221292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005361792826413562</v>
+      </c>
+      <c r="E64">
+        <v>-0.03016225174832419</v>
+      </c>
+      <c r="F64">
+        <v>0.08557362257595283</v>
+      </c>
+      <c r="G64">
+        <v>-0.01126997504628948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08828833330120091</v>
+        <v>0.07013256717625574</v>
       </c>
       <c r="C65">
-        <v>-0.03074402989815375</v>
+        <v>0.0326631004563379</v>
       </c>
       <c r="D65">
-        <v>0.05267172179512035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08710379988552379</v>
+      </c>
+      <c r="E65">
+        <v>-0.03721979488321493</v>
+      </c>
+      <c r="F65">
+        <v>0.008883713673732887</v>
+      </c>
+      <c r="G65">
+        <v>-0.005218610983508484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06486605672831502</v>
+        <v>0.05304978180317738</v>
       </c>
       <c r="C66">
-        <v>-0.1021258276746696</v>
+        <v>0.09053466830702549</v>
       </c>
       <c r="D66">
-        <v>0.04475778253424124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08104676725321022</v>
+      </c>
+      <c r="E66">
+        <v>-0.03830415288368105</v>
+      </c>
+      <c r="F66">
+        <v>0.08804090209922494</v>
+      </c>
+      <c r="G66">
+        <v>-0.005327820073091447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05354157686746866</v>
+        <v>0.04672403888316307</v>
       </c>
       <c r="C67">
-        <v>-0.03209984821207724</v>
+        <v>0.03016255852262796</v>
       </c>
       <c r="D67">
-        <v>-0.009665543097961988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01403598946581035</v>
+      </c>
+      <c r="E67">
+        <v>-0.02547936164237205</v>
+      </c>
+      <c r="F67">
+        <v>0.05257775094145528</v>
+      </c>
+      <c r="G67">
+        <v>-0.0111089881322036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1161640883595011</v>
+        <v>0.1485960865424928</v>
       </c>
       <c r="C68">
-        <v>0.283421398753203</v>
+        <v>-0.2509314318481788</v>
       </c>
       <c r="D68">
-        <v>-0.01217442084607277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01908929792934272</v>
+      </c>
+      <c r="E68">
+        <v>-0.04369646814648367</v>
+      </c>
+      <c r="F68">
+        <v>0.0131383310932098</v>
+      </c>
+      <c r="G68">
+        <v>-0.01129525188244674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09048516216360517</v>
+        <v>0.0874003632953564</v>
       </c>
       <c r="C69">
-        <v>-0.06458576274663029</v>
+        <v>0.08590762971817725</v>
       </c>
       <c r="D69">
-        <v>-0.0388306010606032</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01002382931432859</v>
+      </c>
+      <c r="E69">
+        <v>-0.0469561804177457</v>
+      </c>
+      <c r="F69">
+        <v>0.09208266689250433</v>
+      </c>
+      <c r="G69">
+        <v>-0.02935453884565902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1107378445900145</v>
+        <v>0.1416126901509114</v>
       </c>
       <c r="C71">
-        <v>0.2470206501242966</v>
+        <v>-0.2355996902586379</v>
       </c>
       <c r="D71">
-        <v>0.02289057651089231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01320470160898865</v>
+      </c>
+      <c r="E71">
+        <v>-0.06169993750196816</v>
+      </c>
+      <c r="F71">
+        <v>0.05541994948199407</v>
+      </c>
+      <c r="G71">
+        <v>-0.03680871923771446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0910704889842157</v>
+        <v>0.09833635075954797</v>
       </c>
       <c r="C72">
-        <v>-0.05143424124225571</v>
+        <v>0.05671351035024117</v>
       </c>
       <c r="D72">
-        <v>0.003298526517229791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0277439683052451</v>
+      </c>
+      <c r="E72">
+        <v>-0.01505268980275803</v>
+      </c>
+      <c r="F72">
+        <v>0.07178137310064203</v>
+      </c>
+      <c r="G72">
+        <v>-0.03543171276534184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4170251185664501</v>
+        <v>0.3484823081257447</v>
       </c>
       <c r="C73">
-        <v>-0.05002349658791506</v>
+        <v>0.07741208485516361</v>
       </c>
       <c r="D73">
-        <v>0.3322598188337194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4656367264096605</v>
+      </c>
+      <c r="E73">
+        <v>0.4753646588487254</v>
+      </c>
+      <c r="F73">
+        <v>-0.2504326339665705</v>
+      </c>
+      <c r="G73">
+        <v>-0.1051582776693625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1103840747982094</v>
+        <v>0.1115435403927521</v>
       </c>
       <c r="C74">
-        <v>-0.09827818144036787</v>
+        <v>0.09748943368919355</v>
       </c>
       <c r="D74">
-        <v>-0.02212948667929578</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03195351976593741</v>
+      </c>
+      <c r="E74">
+        <v>-0.06408790129979586</v>
+      </c>
+      <c r="F74">
+        <v>0.04677381264178398</v>
+      </c>
+      <c r="G74">
+        <v>-0.07311457640075557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2549576908121625</v>
+        <v>0.2577964514309</v>
       </c>
       <c r="C75">
-        <v>-0.09941331149659174</v>
+        <v>0.1294389386481778</v>
       </c>
       <c r="D75">
-        <v>-0.08754453624833394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1303955665137058</v>
+      </c>
+      <c r="E75">
+        <v>-0.06924335191539771</v>
+      </c>
+      <c r="F75">
+        <v>0.009071590875008939</v>
+      </c>
+      <c r="G75">
+        <v>-0.07124942577085265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1140563055073181</v>
+        <v>0.1281414198083435</v>
       </c>
       <c r="C76">
-        <v>-0.09041628001298339</v>
+        <v>0.09891626374867854</v>
       </c>
       <c r="D76">
-        <v>-0.04264835284279229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06053062465545148</v>
+      </c>
+      <c r="E76">
+        <v>-0.07717363275116249</v>
+      </c>
+      <c r="F76">
+        <v>0.06503251150429637</v>
+      </c>
+      <c r="G76">
+        <v>-0.05641305481181363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07908639672368277</v>
+        <v>0.06396685359195882</v>
       </c>
       <c r="C77">
-        <v>-0.05958538065003004</v>
+        <v>0.07336912982537193</v>
       </c>
       <c r="D77">
-        <v>0.05745309235040928</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06212039063075515</v>
+      </c>
+      <c r="E77">
+        <v>-0.09282328738194047</v>
+      </c>
+      <c r="F77">
+        <v>0.1084926956669771</v>
+      </c>
+      <c r="G77">
+        <v>0.1325867931133411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04945492180061946</v>
+        <v>0.04371962306310505</v>
       </c>
       <c r="C78">
-        <v>-0.0491072748861774</v>
+        <v>0.0615499883378703</v>
       </c>
       <c r="D78">
-        <v>0.02347676630148625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06772222578992355</v>
+      </c>
+      <c r="E78">
+        <v>-0.04275389130698136</v>
+      </c>
+      <c r="F78">
+        <v>0.08962067633108281</v>
+      </c>
+      <c r="G78">
+        <v>-0.008911314655843763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02654297024044701</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03929972437111089</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06177815380492123</v>
+      </c>
+      <c r="E79">
+        <v>-0.0586072650197518</v>
+      </c>
+      <c r="F79">
+        <v>0.03272507815872282</v>
+      </c>
+      <c r="G79">
+        <v>-0.06725653799579136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04693772888388238</v>
+        <v>0.03493131169625668</v>
       </c>
       <c r="C80">
-        <v>-0.05464024591580467</v>
+        <v>0.05492302760279587</v>
       </c>
       <c r="D80">
-        <v>0.03022971630208028</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04353176186994605</v>
+      </c>
+      <c r="E80">
+        <v>-0.01559307524076555</v>
+      </c>
+      <c r="F80">
+        <v>0.03298629931940791</v>
+      </c>
+      <c r="G80">
+        <v>0.04721024152597527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1408693664189676</v>
+        <v>0.1406723439021933</v>
       </c>
       <c r="C81">
-        <v>-0.07679349612387842</v>
+        <v>0.09387307008540789</v>
       </c>
       <c r="D81">
-        <v>-0.06636193569524686</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1018497448253418</v>
+      </c>
+      <c r="E81">
+        <v>-0.08456181903155593</v>
+      </c>
+      <c r="F81">
+        <v>0.007556331679769017</v>
+      </c>
+      <c r="G81">
+        <v>-0.05011901557161237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1605821364219023</v>
+        <v>0.2030167465445642</v>
       </c>
       <c r="C82">
-        <v>-0.06581511265653696</v>
+        <v>0.1372066947044009</v>
       </c>
       <c r="D82">
-        <v>-0.1603982404763973</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2400859302057903</v>
+      </c>
+      <c r="E82">
+        <v>-0.003506299376237342</v>
+      </c>
+      <c r="F82">
+        <v>0.09360879179706581</v>
+      </c>
+      <c r="G82">
+        <v>-0.04740634737853749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04064547313635631</v>
+        <v>0.02831544407552022</v>
       </c>
       <c r="C83">
-        <v>-0.02614810315667682</v>
+        <v>0.04238409631016542</v>
       </c>
       <c r="D83">
-        <v>0.03296588592822723</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03423230365319741</v>
+      </c>
+      <c r="E83">
+        <v>-0.01964956706657325</v>
+      </c>
+      <c r="F83">
+        <v>0.04195192030093622</v>
+      </c>
+      <c r="G83">
+        <v>0.02039918663724562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.014407667661363e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002062289069575069</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-4.707115411169249e-05</v>
+      </c>
+      <c r="E84">
+        <v>0.0001244690294094676</v>
+      </c>
+      <c r="F84">
+        <v>0.0002662368613931084</v>
+      </c>
+      <c r="G84">
+        <v>-0.0001640841610788182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205295299490164</v>
+        <v>0.2037832751105717</v>
       </c>
       <c r="C85">
-        <v>-0.09750289973438341</v>
+        <v>0.1166786648868956</v>
       </c>
       <c r="D85">
-        <v>-0.1146328856367503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09953827382383239</v>
+      </c>
+      <c r="E85">
+        <v>0.001287374118418389</v>
+      </c>
+      <c r="F85">
+        <v>-0.01565659688183685</v>
+      </c>
+      <c r="G85">
+        <v>-0.1215427013637254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0101459676740367</v>
+        <v>0.0108099605129203</v>
       </c>
       <c r="C86">
-        <v>-0.04193550415797666</v>
+        <v>0.03197413276894708</v>
       </c>
       <c r="D86">
-        <v>0.04393561840776652</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06492103883684167</v>
+      </c>
+      <c r="E86">
+        <v>-0.06195470967286666</v>
+      </c>
+      <c r="F86">
+        <v>0.12827086989561</v>
+      </c>
+      <c r="G86">
+        <v>0.01208554044867509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02556086903498429</v>
+        <v>0.02264001210764273</v>
       </c>
       <c r="C87">
-        <v>-0.01792320494671421</v>
+        <v>0.02106707189632127</v>
       </c>
       <c r="D87">
-        <v>0.09503332563446856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08988919386491881</v>
+      </c>
+      <c r="E87">
+        <v>-0.1113193793200895</v>
+      </c>
+      <c r="F87">
+        <v>0.0689305249498407</v>
+      </c>
+      <c r="G87">
+        <v>0.03716019310747331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1074417159278005</v>
+        <v>0.09312071716739764</v>
       </c>
       <c r="C88">
-        <v>-0.06589689533608137</v>
+        <v>0.06248034474362744</v>
       </c>
       <c r="D88">
-        <v>-0.03169842509815633</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005594032071978394</v>
+      </c>
+      <c r="E88">
+        <v>-0.04223039609229618</v>
+      </c>
+      <c r="F88">
+        <v>0.0727467490912994</v>
+      </c>
+      <c r="G88">
+        <v>0.02631302732577399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1758988803101052</v>
+        <v>0.2184161928292132</v>
       </c>
       <c r="C89">
-        <v>0.3777619139194425</v>
+        <v>-0.3804048894741198</v>
       </c>
       <c r="D89">
-        <v>-0.02369229028133062</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.006644877254356627</v>
+      </c>
+      <c r="E89">
+        <v>-0.06145694923794333</v>
+      </c>
+      <c r="F89">
+        <v>0.07742407109028036</v>
+      </c>
+      <c r="G89">
+        <v>0.06321303662502312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1701003270638847</v>
+        <v>0.1984389690048309</v>
       </c>
       <c r="C90">
-        <v>0.3445679135022358</v>
+        <v>-0.3154713630948125</v>
       </c>
       <c r="D90">
-        <v>-0.02203306158336589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01354299041592729</v>
+      </c>
+      <c r="E90">
+        <v>-0.07180388125521438</v>
+      </c>
+      <c r="F90">
+        <v>0.04302654950926537</v>
+      </c>
+      <c r="G90">
+        <v>0.01200883019170026</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1908460865041456</v>
+        <v>0.1861632029909141</v>
       </c>
       <c r="C91">
-        <v>-0.1231406262573338</v>
+        <v>0.1395406584422409</v>
       </c>
       <c r="D91">
-        <v>-0.08500513393414552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1103418560070213</v>
+      </c>
+      <c r="E91">
+        <v>-0.06040055204935173</v>
+      </c>
+      <c r="F91">
+        <v>0.0321977934773911</v>
+      </c>
+      <c r="G91">
+        <v>-0.05650239398435589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1612574042584726</v>
+        <v>0.1802138695670979</v>
       </c>
       <c r="C92">
-        <v>0.2916819155685703</v>
+        <v>-0.2860147178151691</v>
       </c>
       <c r="D92">
-        <v>-0.00761594165308241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006032339834283113</v>
+      </c>
+      <c r="E92">
+        <v>-0.06787600408720773</v>
+      </c>
+      <c r="F92">
+        <v>0.08373429385984386</v>
+      </c>
+      <c r="G92">
+        <v>0.01042998490375874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1939513744032196</v>
+        <v>0.2218471229960397</v>
       </c>
       <c r="C93">
-        <v>0.3462228698077168</v>
+        <v>-0.3196027480380248</v>
       </c>
       <c r="D93">
-        <v>-0.0189512623010854</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005579949973173267</v>
+      </c>
+      <c r="E93">
+        <v>-0.04689775259461047</v>
+      </c>
+      <c r="F93">
+        <v>0.04255538895585024</v>
+      </c>
+      <c r="G93">
+        <v>-0.02796682306752688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3401209830201427</v>
+        <v>0.3437678877594296</v>
       </c>
       <c r="C94">
-        <v>-0.1378838265421513</v>
+        <v>0.1774491063415502</v>
       </c>
       <c r="D94">
-        <v>-0.4408613178296363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4961398048327557</v>
+      </c>
+      <c r="E94">
+        <v>-0.04986705342045941</v>
+      </c>
+      <c r="F94">
+        <v>-0.4405851157070321</v>
+      </c>
+      <c r="G94">
+        <v>0.3277171919095133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1129307179652595</v>
+        <v>0.08580023274498969</v>
       </c>
       <c r="C95">
-        <v>-0.08075510527645213</v>
+        <v>0.06821700599253591</v>
       </c>
       <c r="D95">
-        <v>0.122444420194621</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1690130964809005</v>
+      </c>
+      <c r="E95">
+        <v>0.1084186120762013</v>
+      </c>
+      <c r="F95">
+        <v>0.2239721093824797</v>
+      </c>
+      <c r="G95">
+        <v>0.8678579757977483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.198318412015811</v>
+        <v>0.1882768276599422</v>
       </c>
       <c r="C98">
-        <v>-0.01690832974964101</v>
+        <v>0.04104663960408018</v>
       </c>
       <c r="D98">
-        <v>0.125826279893279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.185598668400936</v>
+      </c>
+      <c r="E98">
+        <v>0.1492405517053585</v>
+      </c>
+      <c r="F98">
+        <v>-0.03416206012928547</v>
+      </c>
+      <c r="G98">
+        <v>-0.09991537947229349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008407835944709221</v>
+        <v>0.005864511929440313</v>
       </c>
       <c r="C101">
-        <v>-0.03095754695708467</v>
+        <v>0.029080742224365</v>
       </c>
       <c r="D101">
-        <v>-0.0195644025425277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01849920378251797</v>
+      </c>
+      <c r="E101">
+        <v>-0.0370391342351273</v>
+      </c>
+      <c r="F101">
+        <v>0.08811096733696373</v>
+      </c>
+      <c r="G101">
+        <v>-0.008099944092787937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.123191309950918</v>
+        <v>0.124759668304925</v>
       </c>
       <c r="C102">
-        <v>-0.07078776308205194</v>
+        <v>0.09715129661666723</v>
       </c>
       <c r="D102">
-        <v>-0.02883702496267814</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04761257708539615</v>
+      </c>
+      <c r="E102">
+        <v>0.004433418031466138</v>
+      </c>
+      <c r="F102">
+        <v>0.04275236221699302</v>
+      </c>
+      <c r="G102">
+        <v>-0.01869179591274061</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
